--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_107.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_107.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6886</v>
+        <v>3.1073</v>
       </c>
       <c r="J3" t="n">
-        <v>29.17</v>
+        <v>28.14</v>
       </c>
       <c r="K3" t="n">
-        <v>1407.85</v>
+        <v>1569.69</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.07</v>
+        <v>2.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1444.7278</v>
+        <v>1633.5145</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4603</v>
+        <v>2.8403</v>
       </c>
       <c r="J4" t="n">
-        <v>2.62</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>115.94</v>
+        <v>160.62</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.81</v>
+        <v>2.62</v>
       </c>
       <c r="R4" t="n">
-        <v>1319.8751</v>
+        <v>1449.8012</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>11.9578</v>
+        <v>14.1145</v>
       </c>
       <c r="J5" t="n">
-        <v>27.4</v>
+        <v>27.69</v>
       </c>
       <c r="K5" t="n">
-        <v>5882.23</v>
+        <v>7015.77</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>10.88</v>
+        <v>11.11</v>
       </c>
       <c r="R5" t="n">
-        <v>5118.6271</v>
+        <v>6157.9487</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>14.2986</v>
+        <v>16.7193</v>
       </c>
       <c r="J6" t="n">
-        <v>28.96</v>
+        <v>28.66</v>
       </c>
       <c r="K6" t="n">
-        <v>7435.54</v>
+        <v>8601.51</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>9.07</v>
+        <v>8.99</v>
       </c>
       <c r="R6" t="n">
-        <v>4267.0803</v>
+        <v>4985.8197</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>6.0815</v>
+        <v>7.047</v>
       </c>
       <c r="J7" t="n">
-        <v>33.72</v>
+        <v>33.02</v>
       </c>
       <c r="K7" t="n">
-        <v>3681.88</v>
+        <v>4177.21</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>6.25</v>
+        <v>6.04</v>
       </c>
       <c r="R7" t="n">
-        <v>2941.1006</v>
+        <v>3347.1167</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>72.121</v>
+        <v>87.1854</v>
       </c>
       <c r="J8" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>5815.13</v>
+        <v>7040.33</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>11.97</v>
+        <v>12.35</v>
       </c>
       <c r="R8" t="n">
-        <v>5628.9518</v>
+        <v>6846.8306</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1001,16 +1001,16 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I9" t="n">
-        <v>15.5229</v>
+        <v>21.0295</v>
       </c>
       <c r="J9" t="n">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="K9" t="n">
-        <v>554.46</v>
+        <v>682.61</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>447.1331</v>
+        <v>522.5286</v>
       </c>
     </row>
   </sheetData>
